--- a/Documentation/Working_Documents/Spinning_Light_Wand_Adaptation_BOM_V1.0.xlsx
+++ b/Documentation/Working_Documents/Spinning_Light_Wand_Adaptation_BOM_V1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Toy Wand Switch Adapted Toy/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Toy Wand Switch Adapted Toy/GitHub/Spinning-Light-Wand-Adaptation/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058DEAC4-C4E5-4FEE-A4A6-9EB85380A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{72F83CE0-3C65-426F-AC7C-5194C01AC1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9821747-0BE1-4983-A2CB-4814A942DAD7}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Total Cost</t>
   </si>
@@ -164,13 +164,16 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>SJ1-3513</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/cui-devices/SJ1-3513/738683</t>
   </si>
   <si>
     <t>Date Created: 2022-Apr-13</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/schurter-inc/4832-2211/2646631</t>
+  </si>
+  <si>
+    <t>Shurter 4832.2211</t>
   </si>
 </sst>
 </file>
@@ -787,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,11 +831,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5">
         <f>SUM(H5:H12)+F19</f>
-        <v>10.135</v>
+        <v>9.754999999999999</v>
       </c>
       <c r="E2" s="24">
         <f>SUM(G14:G18)/60</f>
@@ -917,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -926,18 +929,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="G6" s="17">
         <f>F6/E6</f>
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="H6" s="17">
         <f>G6*D6</f>
-        <v>2.4</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>39</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -971,6 +971,9 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G9" s="17"/>
@@ -1162,9 +1165,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{57C83C38-FF34-4AC5-ADBD-4564F5A963CF}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{59196A6A-AF86-4938-A36A-7E6CD2618EC2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
